--- a/data/oliviaafairy_2026-01-15.xlsx
+++ b/data/oliviaafairy_2026-01-15.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,37 +512,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2011379473606746447</t>
+          <t>2011813623128101334</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46036.42141203704</v>
+        <v>46037.61944444444</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wataa #nsfwtwt https://t.co/84Q5vFrZOP</t>
+          <t>Wataa #nsfwtwt https://t.co/EO36lO8qww</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -560,13 +560,109 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2011379473606746447</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>46036.42141203704</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wataa #nsfwtwt https://t.co/84Q5vFrZOP</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2011379473606746447</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46036.42141203704</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wataa #nsfwtwt https://t.co/84Q5vFrZOP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2010962515786600705</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B5" s="2" t="n">
         <v>46035.27083333334</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>New intro ! ꨄ︎
 ── .✦  hii im Olivia, new 2 #nsfwtwt
@@ -577,85 +673,187 @@
 #latina #horny https://t.co/dsBmPVwBMA</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>53</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5" t="n">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>69</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L5" t="n">
         <v>200</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2010962515786600705</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46035.27083333334</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>New intro ! ꨄ︎
+── .✦  hii im Olivia, new 2 #nsfwtwt
+       ❥ 18 | she/her | straight 
+       ❥ switch | 5'2
+       ❥ I need new friends 
+ ♡ + ↻ to be moots 🎀
+#latina #horny https://t.co/dsBmPVwBMA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>200</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2010696110839324959</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B7" s="2" t="n">
         <v>46034.53569444444</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Wataa #nsfwtwt https://t.co/pJaoyaQaSr</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D7" t="n">
         <v>32</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>38</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I7" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L7" t="n">
         <v>38</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2010696110839324959</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>46034.53569444444</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Wataa #nsfwtwt https://t.co/pJaoyaQaSr</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>38</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/oliviaafairy_2026-01-15.xlsx
+++ b/data/oliviaafairy_2026-01-15.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,61 +608,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2011379473606746447</t>
+          <t>2010962515786600705</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46036.42141203704</v>
+        <v>46035.27083333334</v>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Wataa #nsfwtwt https://t.co/84Q5vFrZOP</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>22</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>38</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2010962515786600705</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46035.27083333334</v>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>New intro ! ꨄ︎
 ── .✦  hii im Olivia, new 2 #nsfwtwt
@@ -673,187 +625,85 @@
 #latina #horny https://t.co/dsBmPVwBMA</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>53</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>200</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2010696110839324959</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46034.53569444444</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wataa #nsfwtwt https://t.co/pJaoyaQaSr</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>69</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
       <c r="L5" t="n">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2010962515786600705</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>46035.27083333334</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>New intro ! ꨄ︎
-── .✦  hii im Olivia, new 2 #nsfwtwt
-       ❥ 18 | she/her | straight 
-       ❥ switch | 5'2
-       ❥ I need new friends 
- ♡ + ↻ to be moots 🎀
-#latina #horny https://t.co/dsBmPVwBMA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>55</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>73</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>200</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2010696110839324959</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>46034.53569444444</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Wataa #nsfwtwt https://t.co/pJaoyaQaSr</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>38</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>38</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2010696110839324959</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>46034.53569444444</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Wataa #nsfwtwt https://t.co/pJaoyaQaSr</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>34</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>40</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/oliviaafairy_2026-01-15.xlsx
+++ b/data/oliviaafairy_2026-01-15.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,11 @@
           <t>heeft_link</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>media_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,6 +561,7 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -604,6 +610,7 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -658,6 +665,7 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -706,6 +714,7 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/oliviaafairy_2026-01-15.xlsx
+++ b/data/oliviaafairy_2026-01-15.xlsx
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
